--- a/project_managment/Balken Gantt-Chart.xlsx
+++ b/project_managment/Balken Gantt-Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i588011/Documents/GitHub/BullshitBingo/project_managment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFF9A5E-5C28-1340-8D28-1092BF489DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCE9C68-6557-214A-90A3-10BBE670C6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15340" yWindow="-28800" windowWidth="68800" windowHeight="28800" xr2:uid="{7776A38E-B550-B94F-925D-049D4A6C4F8B}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{7776A38E-B550-B94F-925D-049D4A6C4F8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -119,14 +119,20 @@
     <t>15d</t>
   </si>
   <si>
-    <t>&lt; - - - &gt;</t>
+    <t>Vorgänge auf dem kritischen Pfad</t>
+  </si>
+  <si>
+    <t>Vorgänge nicht auf dem kritischen Pfad</t>
+  </si>
+  <si>
+    <t>Maximaler Puffer von nicht kritsichen Vorgängen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -141,8 +147,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="0.59999389629810485"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +188,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -396,12 +435,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -451,13 +490,22 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -794,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D67EFA-6C59-1445-A86F-2CA43823E5CB}">
-  <dimension ref="A1:AF14"/>
+  <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -805,7 +853,7 @@
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="37.1640625" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="32" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1209,7 +1257,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="26"/>
+      <c r="L9" s="2"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1252,25 +1300,25 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
       <c r="AF10" s="3"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
@@ -1303,12 +1351,12 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="26"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
@@ -1345,17 +1393,15 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="28" t="s">
-        <v>27</v>
-      </c>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="28"/>
       <c r="AE12" s="28"/>
       <c r="AF12" s="3"/>
     </row>
@@ -1435,6 +1481,21 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="6"/>
     </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B15" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B16" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="32" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/project_managment/Balken Gantt-Chart.xlsx
+++ b/project_managment/Balken Gantt-Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i588011/Documents/GitHub/BullshitBingo/project_managment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marfi\dev\BullshitBingo\project_managment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCE9C68-6557-214A-90A3-10BBE670C6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5667B2-4294-4C6D-83F4-E57A3C04277B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{7776A38E-B550-B94F-925D-049D4A6C4F8B}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12377" xr2:uid="{7776A38E-B550-B94F-925D-049D4A6C4F8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -77,9 +75,6 @@
     <t>Test der Anwendung</t>
   </si>
   <si>
-    <t>Erstellung der Präentation</t>
-  </si>
-  <si>
     <t>Präsentation und Übergabe</t>
   </si>
   <si>
@@ -126,12 +121,18 @@
   </si>
   <si>
     <t>Maximaler Puffer von nicht kritsichen Vorgängen</t>
+  </si>
+  <si>
+    <t>Erstellung der Präsentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="d/m;@"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -478,8 +479,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -508,9 +507,11 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -844,20 +845,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D67EFA-6C59-1445-A86F-2CA43823E5CB}">
   <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="93" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="37.1640625" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="32" width="7.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.35546875" customWidth="1"/>
+    <col min="5" max="32" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -870,126 +871,126 @@
       <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="18">
+      <c r="E1" s="32">
         <v>45447</v>
       </c>
-      <c r="F1" s="18">
+      <c r="F1" s="32">
         <v>45448</v>
       </c>
-      <c r="G1" s="18">
+      <c r="G1" s="32">
         <v>45449</v>
       </c>
-      <c r="H1" s="18">
+      <c r="H1" s="32">
         <v>45450</v>
       </c>
-      <c r="I1" s="18">
+      <c r="I1" s="32">
         <v>45451</v>
       </c>
-      <c r="J1" s="18">
+      <c r="J1" s="32">
         <v>45452</v>
       </c>
-      <c r="K1" s="18">
+      <c r="K1" s="32">
         <v>45453</v>
       </c>
-      <c r="L1" s="18">
+      <c r="L1" s="32">
         <v>45454</v>
       </c>
-      <c r="M1" s="18">
+      <c r="M1" s="32">
         <v>45455</v>
       </c>
-      <c r="N1" s="18">
+      <c r="N1" s="32">
         <v>45456</v>
       </c>
-      <c r="O1" s="18">
+      <c r="O1" s="32">
         <v>45457</v>
       </c>
-      <c r="P1" s="18">
+      <c r="P1" s="32">
         <v>45458</v>
       </c>
-      <c r="Q1" s="18">
+      <c r="Q1" s="32">
         <v>45459</v>
       </c>
-      <c r="R1" s="18">
+      <c r="R1" s="32">
         <v>45460</v>
       </c>
-      <c r="S1" s="18">
+      <c r="S1" s="32">
         <v>45461</v>
       </c>
-      <c r="T1" s="18">
+      <c r="T1" s="32">
         <v>45462</v>
       </c>
-      <c r="U1" s="18">
+      <c r="U1" s="32">
         <v>45463</v>
       </c>
-      <c r="V1" s="18">
+      <c r="V1" s="32">
         <v>45464</v>
       </c>
-      <c r="W1" s="18">
+      <c r="W1" s="32">
         <v>45465</v>
       </c>
-      <c r="X1" s="18">
+      <c r="X1" s="32">
         <v>45466</v>
       </c>
-      <c r="Y1" s="18">
+      <c r="Y1" s="32">
         <v>45467</v>
       </c>
-      <c r="Z1" s="18">
+      <c r="Z1" s="32">
         <v>45468</v>
       </c>
-      <c r="AA1" s="18">
+      <c r="AA1" s="32">
         <v>45469</v>
       </c>
-      <c r="AB1" s="18">
+      <c r="AB1" s="32">
         <v>45470</v>
       </c>
-      <c r="AC1" s="18">
+      <c r="AC1" s="32">
         <v>45471</v>
       </c>
-      <c r="AD1" s="18">
+      <c r="AD1" s="32">
         <v>45472</v>
       </c>
-      <c r="AE1" s="18">
+      <c r="AE1" s="32">
         <v>45473</v>
       </c>
-      <c r="AF1" s="19">
+      <c r="AF1" s="33">
         <v>45474</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A2" s="12"/>
       <c r="B2" s="8"/>
       <c r="C2" s="7"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="24"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="22"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -997,10 +998,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="16"/>
-      <c r="E3" s="22"/>
+      <c r="E3" s="20"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1029,7 +1030,7 @@
       <c r="AE3" s="2"/>
       <c r="AF3" s="3"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -1037,10 +1038,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="16"/>
-      <c r="E4" s="22"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1069,7 +1070,7 @@
       <c r="AE4" s="2"/>
       <c r="AF4" s="3"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -1077,12 +1078,12 @@
         <v>6</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="23"/>
+        <v>14</v>
+      </c>
+      <c r="E5" s="21"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1111,7 +1112,7 @@
       <c r="AE5" s="2"/>
       <c r="AF5" s="3"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -1119,12 +1120,12 @@
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="23"/>
+        <v>15</v>
+      </c>
+      <c r="E6" s="21"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1153,7 +1154,7 @@
       <c r="AE6" s="2"/>
       <c r="AF6" s="3"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A7" s="12">
         <v>5</v>
       </c>
@@ -1161,12 +1162,12 @@
         <v>8</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="23"/>
+        <v>16</v>
+      </c>
+      <c r="E7" s="21"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1195,7 +1196,7 @@
       <c r="AE7" s="2"/>
       <c r="AF7" s="3"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -1203,12 +1204,12 @@
         <v>9</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="23"/>
+        <v>16</v>
+      </c>
+      <c r="E8" s="21"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1237,7 +1238,7 @@
       <c r="AE8" s="2"/>
       <c r="AF8" s="3"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -1245,12 +1246,12 @@
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="23"/>
+        <v>17</v>
+      </c>
+      <c r="E9" s="21"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1279,7 +1280,7 @@
       <c r="AE9" s="2"/>
       <c r="AF9" s="3"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -1287,12 +1288,12 @@
         <v>11</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="23"/>
+        <v>18</v>
+      </c>
+      <c r="E10" s="21"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1300,28 +1301,28 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="33"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="31"/>
       <c r="AF10" s="3"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -1329,12 +1330,12 @@
         <v>12</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="23"/>
+        <v>19</v>
+      </c>
+      <c r="E11" s="21"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1363,20 +1364,20 @@
       <c r="AE11" s="1"/>
       <c r="AF11" s="3"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A12" s="12">
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="23"/>
+        <v>19</v>
+      </c>
+      <c r="E12" s="21"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1399,26 +1400,26 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="26"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="28"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
       <c r="AF12" s="3"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A13" s="12">
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="23"/>
+        <v>20</v>
+      </c>
+      <c r="E13" s="21"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1447,12 +1448,12 @@
       <c r="AE13" s="2"/>
       <c r="AF13" s="4"/>
     </row>
-    <row r="14" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="25"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -1481,19 +1482,19 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="6"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B15" s="30" t="s">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="B15" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="B16" s="29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B16" s="31" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B17" s="30" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="32" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
